--- a/biology/Botanique/Allium_aflatunense/Allium_aflatunense.xlsx
+++ b/biology/Botanique/Allium_aflatunense/Allium_aflatunense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium aflatunense, l'Ail d'Aflatun ou Ail d'Asie mineure, est une espèce de plante herbacée, bulbeuse et vivace appartenant à la famille des Amaryllidacées[1]. Elle est originaire d'Asie centrale et est couramment utilisée comme plante ornementale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium aflatunense, l'Ail d'Aflatun ou Ail d'Asie mineure, est une espèce de plante herbacée, bulbeuse et vivace appartenant à la famille des Amaryllidacées. Elle est originaire d'Asie centrale et est couramment utilisée comme plante ornementale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Cette espèce fait partie des oignons dits d'ornement. Elle produit une rosette basale de feuilles d'où naît une hampe florale creuse, de 75 à 120 cm, qui supporte une ombelle avec de minuscules fleurs violettes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Cette espèce fait partie des oignons dits d'ornement. Elle produit une rosette basale de feuilles d'où naît une hampe florale creuse, de 75 à 120 cm, qui supporte une ombelle avec de minuscules fleurs violettes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomía</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Allium aflatunense a été décrit par Boris Fedtchenko et publié dans Bull. herbe. Boissier II, 4 : 917 1904[3],[4],[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Allium aflatunense a été décrit par Boris Fedtchenko et publié dans Bull. herbe. Boissier II, 4 : 917 1904.
 </t>
         </is>
       </c>
